--- a/pyppe/result/marker_position_100_1600.xlsx
+++ b/pyppe/result/marker_position_100_1600.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5fd5590820cdec0/Work@/2018- IAE/과제/2022/(2차년도) 이송정밀도/연구개발/resolution_marker_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82ED4CE4-0ECD-4C44-938F-2C64928CE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE22FA81-A1FF-1247-802F-E70A06CEBBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24640" yWindow="13100" windowWidth="27900" windowHeight="16940"/>
   </bookViews>
   <sheets>
-    <sheet name="102_marker_position_100_1600" sheetId="1" r:id="rId1"/>
+    <sheet name="marker_position_100_1600" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
@@ -1004,959 +1004,959 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.2665269877259</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B2">
-        <v>1.01398783895987</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C2">
-        <v>95.586564211266605</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.28827495089277</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B3">
-        <v>1.00661275272546</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C3">
-        <v>94.9037657248182</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B4">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C4">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B5">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C5">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B6">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C6">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B7">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C7">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.2769162885974601</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B8">
-        <v>1.0153435845772201</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C8">
-        <v>95.325759157568001</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B9">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C9">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.2769162885974601</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B10">
-        <v>1.0153435845772201</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C10">
-        <v>95.325759157568001</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.2665269877259</v>
+        <v>1.26132020144975</v>
       </c>
       <c r="B11">
-        <v>1.01398783895987</v>
+        <v>0.98494544749722202</v>
       </c>
       <c r="C11">
-        <v>95.586564211266605</v>
+        <v>94.760941753783797</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.27726847207311</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B12">
-        <v>1.0211241786696701</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C12">
-        <v>95.223628760790504</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.27726847207311</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B13">
-        <v>1.0211241786696701</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C13">
-        <v>95.223628760790504</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B14">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C14">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B15">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C15">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B16">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C16">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.2665269877259</v>
+        <v>1.2797698213140001</v>
       </c>
       <c r="B17">
-        <v>1.01398783895987</v>
+        <v>1.01915982368958</v>
       </c>
       <c r="C17">
-        <v>95.586564211266605</v>
+        <v>95.233520011976196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.2665269877259</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B18">
-        <v>1.01398783895987</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C18">
-        <v>95.586564211266605</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B19">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C19">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.28827495089277</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B20">
-        <v>1.00661275272546</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C20">
-        <v>94.9037657248182</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.28827495089277</v>
+        <v>1.29497368505996</v>
       </c>
       <c r="B21">
-        <v>1.00661275272546</v>
+        <v>0.98462660125843904</v>
       </c>
       <c r="C21">
-        <v>94.9037657248182</v>
+        <v>94.738599340931202</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.2665269877259</v>
+        <v>1.2884485456385699</v>
       </c>
       <c r="B22">
-        <v>1.01398783895987</v>
+        <v>0.97823647641825495</v>
       </c>
       <c r="C22">
-        <v>95.586564211266605</v>
+        <v>95.146850807139003</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.2886045540075</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B23">
-        <v>1.02111737156852</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C23">
-        <v>95.267928797072997</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.2665269877259</v>
+        <v>1.2884485456385699</v>
       </c>
       <c r="B24">
-        <v>1.01398783895987</v>
+        <v>0.97823647641825495</v>
       </c>
       <c r="C24">
-        <v>95.586564211266605</v>
+        <v>95.146850807139003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B25">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C25">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.2665269877259</v>
+        <v>1.26132020144975</v>
       </c>
       <c r="B26">
-        <v>1.01398783895987</v>
+        <v>0.98494544749722202</v>
       </c>
       <c r="C26">
-        <v>95.586564211266605</v>
+        <v>94.760941753783797</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.27726847207311</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B27">
-        <v>1.0211241786696701</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C27">
-        <v>95.223628760790504</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B28">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C28">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.28827495089277</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B29">
-        <v>1.00661275272546</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C29">
-        <v>94.9037657248182</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.27726847207311</v>
+        <v>1.28981903294047</v>
       </c>
       <c r="B30">
-        <v>1.0211241786696701</v>
+        <v>1.01921752738989</v>
       </c>
       <c r="C30">
-        <v>95.223628760790504</v>
+        <v>95.246808180389493</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.2665269877259</v>
+        <v>1.2888294890810601</v>
       </c>
       <c r="B31">
-        <v>1.01398783895987</v>
+        <v>0.99826819663695499</v>
       </c>
       <c r="C31">
-        <v>95.586564211266605</v>
+        <v>95.167645669576302</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B32">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C32">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.27726847207311</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B33">
-        <v>1.0211241786696701</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C33">
-        <v>95.223628760790504</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.2665269877259</v>
+        <v>1.2964443811314701</v>
       </c>
       <c r="B34">
-        <v>1.01398783895987</v>
+        <v>1.0016405052275501</v>
       </c>
       <c r="C34">
-        <v>95.586564211266605</v>
+        <v>95.183352432232994</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.2769162885974601</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B35">
-        <v>1.0153435845772201</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C35">
-        <v>95.325759157568001</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B36">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C36">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B37">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C37">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B38">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C38">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.2665269877259</v>
+        <v>1.2642496067028199</v>
       </c>
       <c r="B39">
-        <v>1.01398783895987</v>
+        <v>0.99100559690253498</v>
       </c>
       <c r="C39">
-        <v>95.586564211266605</v>
+        <v>94.396234433748106</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B40">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C40">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.2769162885974601</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B41">
-        <v>1.0153435845772201</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C41">
-        <v>95.325759157568001</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1.2769162885974601</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B42">
-        <v>1.0153435845772201</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C42">
-        <v>95.325759157568001</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.28827495089277</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B43">
-        <v>1.00661275272546</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C43">
-        <v>94.9037657248182</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B44">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C44">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B45">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C45">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1.2642496067028199</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B46">
-        <v>0.99100559690253498</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C46">
-        <v>94.396234433748106</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B47">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C47">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1.2665269877259</v>
+        <v>1.2964443811314701</v>
       </c>
       <c r="B48">
-        <v>1.01398783895987</v>
+        <v>1.0016405052275501</v>
       </c>
       <c r="C48">
-        <v>95.586564211266605</v>
+        <v>95.183352432232994</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B49">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C49">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1.2797698213140001</v>
+        <v>1.2642496067028199</v>
       </c>
       <c r="B50">
-        <v>1.01915982368958</v>
+        <v>0.99100559690253498</v>
       </c>
       <c r="C50">
-        <v>95.233520011976196</v>
+        <v>94.396234433748106</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B51">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C51">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B52">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C52">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B53">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C53">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1.2665269877259</v>
+        <v>1.29497368505996</v>
       </c>
       <c r="B54">
-        <v>1.01398783895987</v>
+        <v>0.98462660125843904</v>
       </c>
       <c r="C54">
-        <v>95.586564211266605</v>
+        <v>94.738599340931202</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1.2665269877259</v>
+        <v>1.2772551478540499</v>
       </c>
       <c r="B55">
-        <v>1.01398783895987</v>
+        <v>0.98587692094269397</v>
       </c>
       <c r="C55">
-        <v>95.586564211266605</v>
+        <v>94.855848822092597</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1.27726847207311</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B56">
-        <v>1.0211241786696701</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C56">
-        <v>95.223628760790504</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B57">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C57">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1.2665269877259</v>
+        <v>1.2698132578451999</v>
       </c>
       <c r="B58">
-        <v>1.01398783895987</v>
+        <v>1.00085409296759</v>
       </c>
       <c r="C58">
-        <v>95.586564211266605</v>
+        <v>95.288263786047096</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1.2791249696615601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B59">
-        <v>0.99869524031196399</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C59">
-        <v>95.1966139159763</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B60">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C60">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1.2665269877259</v>
+        <v>1.2823250588403601</v>
       </c>
       <c r="B61">
-        <v>1.01398783895987</v>
+        <v>0.99075899614825702</v>
       </c>
       <c r="C61">
-        <v>95.586564211266605</v>
+        <v>94.381673512153597</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B62">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C62">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B63">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C63">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B64">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C64">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B65">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C65">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B66">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C66">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1.28827495089277</v>
+        <v>1.27379954452073</v>
       </c>
       <c r="B67">
-        <v>1.00661275272546</v>
+        <v>1.01490811885641</v>
       </c>
       <c r="C67">
-        <v>94.9037657248182</v>
+        <v>95.270027550974106</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B68">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C68">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1.2665269877259</v>
+        <v>1.2884485456385699</v>
       </c>
       <c r="B69">
-        <v>1.01398783895987</v>
+        <v>0.97823647641825495</v>
       </c>
       <c r="C69">
-        <v>95.586564211266605</v>
+        <v>95.146850807139003</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B70">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C70">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1.2665269877259</v>
+        <v>1.2964443811314701</v>
       </c>
       <c r="B71">
-        <v>1.01398783895987</v>
+        <v>1.0016405052275501</v>
       </c>
       <c r="C71">
-        <v>95.586564211266605</v>
+        <v>95.183352432232994</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B72">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C72">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B73">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C73">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1.2665269877259</v>
+        <v>1.2642496067028199</v>
       </c>
       <c r="B74">
-        <v>1.01398783895987</v>
+        <v>0.99100559690253498</v>
       </c>
       <c r="C74">
-        <v>95.586564211266605</v>
+        <v>94.396234433748106</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B75">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C75">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1.27726847207311</v>
+        <v>1.28827495089277</v>
       </c>
       <c r="B76">
-        <v>1.0211241786696701</v>
+        <v>1.00661275272546</v>
       </c>
       <c r="C76">
-        <v>95.223628760790504</v>
+        <v>94.9037657248182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1.2665269877259</v>
+        <v>1.28827495089277</v>
       </c>
       <c r="B77">
-        <v>1.01398783895987</v>
+        <v>1.00661275272546</v>
       </c>
       <c r="C77">
-        <v>95.586564211266605</v>
+        <v>94.9037657248182</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1.28827495089277</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B78">
-        <v>1.00661275272546</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C78">
-        <v>94.9037657248182</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1.24868670185396</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B79">
-        <v>1.01926245921937</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C79">
-        <v>95.166995300779305</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B80">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C80">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1.2665269877259</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B81">
-        <v>1.01398783895987</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C81">
-        <v>95.586564211266605</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B82">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C82">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>1.2769162885974601</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B83">
-        <v>1.0153435845772201</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C83">
-        <v>95.325759157568001</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>1.2769162885974601</v>
+        <v>1.26132020144975</v>
       </c>
       <c r="B84">
-        <v>1.0153435845772201</v>
+        <v>0.98494544749722202</v>
       </c>
       <c r="C84">
-        <v>95.325759157568001</v>
+        <v>94.760941753783797</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B85">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C85">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>1.27726847207311</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B86">
-        <v>1.0211241786696701</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C86">
-        <v>95.223628760790504</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1.2769162885974601</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B87">
-        <v>1.0153435845772201</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C87">
-        <v>95.325759157568001</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B88">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C88">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1972,662 +1972,662 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B90">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C90">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1.2665269877259</v>
+        <v>1.29497368505996</v>
       </c>
       <c r="B91">
-        <v>1.01398783895987</v>
+        <v>0.98462660125843904</v>
       </c>
       <c r="C91">
-        <v>95.586564211266605</v>
+        <v>94.738599340931202</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1.2665269877259</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B92">
-        <v>1.01398783895987</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C92">
-        <v>95.586564211266605</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B93">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C93">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1.28827495089277</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B94">
-        <v>1.00661275272546</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C94">
-        <v>94.9037657248182</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B95">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C95">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B96">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C96">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B97">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C97">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B98">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C98">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B99">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C99">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>1.2769162885974601</v>
+        <v>1.2642496067028199</v>
       </c>
       <c r="B100">
-        <v>1.0153435845772201</v>
+        <v>0.99100559690253498</v>
       </c>
       <c r="C100">
-        <v>95.325759157568001</v>
+        <v>94.396234433748106</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B101">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C101">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>1.2769162885974601</v>
+        <v>1.2910695441403801</v>
       </c>
       <c r="B102">
-        <v>1.0153435845772201</v>
+        <v>0.99200696821489498</v>
       </c>
       <c r="C102">
-        <v>95.325759157568001</v>
+        <v>94.399215858080794</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B103">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C103">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>1.28827495089277</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B104">
-        <v>1.00661275272546</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C104">
-        <v>94.9037657248182</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B105">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C105">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>1.2665269877259</v>
+        <v>1.26132020144975</v>
       </c>
       <c r="B106">
-        <v>1.01398783895987</v>
+        <v>0.98494544749722202</v>
       </c>
       <c r="C106">
-        <v>95.586564211266605</v>
+        <v>94.760941753783797</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>1.2665269877259</v>
+        <v>1.2964443811314701</v>
       </c>
       <c r="B107">
-        <v>1.01398783895987</v>
+        <v>1.0016405052275501</v>
       </c>
       <c r="C107">
-        <v>95.586564211266605</v>
+        <v>95.183352432232994</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B108">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C108">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>1.2665269877259</v>
+        <v>1.2698132578451999</v>
       </c>
       <c r="B109">
-        <v>1.01398783895987</v>
+        <v>1.00085409296759</v>
       </c>
       <c r="C109">
-        <v>95.586564211266605</v>
+        <v>95.288263786047096</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B110">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C110">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>1.2665269877259</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B111">
-        <v>1.01398783895987</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C111">
-        <v>95.586564211266605</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B112">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C112">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>1.2665269877259</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B113">
-        <v>1.01398783895987</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C113">
-        <v>95.586564211266605</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B114">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C114">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B115">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C115">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B116">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C116">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>1.27726847207311</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B117">
-        <v>1.0211241786696701</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C117">
-        <v>95.223628760790504</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B118">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C118">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B119">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C119">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>1.2665269877259</v>
+        <v>1.26683896650852</v>
       </c>
       <c r="B120">
-        <v>1.01398783895987</v>
+        <v>1.0008032762377299</v>
       </c>
       <c r="C120">
-        <v>95.586564211266605</v>
+        <v>94.944535030146696</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B121">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C121">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>1.2665269877259</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B122">
-        <v>1.01398783895987</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C122">
-        <v>95.586564211266605</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>1.27726847207311</v>
+        <v>1.27436682504942</v>
       </c>
       <c r="B123">
-        <v>1.0211241786696701</v>
+        <v>1.00731670512867</v>
       </c>
       <c r="C123">
-        <v>95.223628760790504</v>
+        <v>94.891394520371804</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>1.2695053943608801</v>
+        <v>1.29497368505996</v>
       </c>
       <c r="B124">
-        <v>1.0203557299821</v>
+        <v>0.98462660125843904</v>
       </c>
       <c r="C124">
-        <v>95.264104865256499</v>
+        <v>94.738599340931202</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>1.2665269877259</v>
+        <v>1.26132020144975</v>
       </c>
       <c r="B125">
-        <v>1.01398783895987</v>
+        <v>0.98494544749722202</v>
       </c>
       <c r="C125">
-        <v>95.586564211266605</v>
+        <v>94.760941753783797</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>1.2769162885974601</v>
+        <v>1.2642496067028199</v>
       </c>
       <c r="B126">
-        <v>1.0153435845772201</v>
+        <v>0.99100559690253498</v>
       </c>
       <c r="C126">
-        <v>95.325759157568001</v>
+        <v>94.396234433748106</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>1.2665269877259</v>
+        <v>1.29497368505996</v>
       </c>
       <c r="B127">
-        <v>1.01398783895987</v>
+        <v>0.98462660125843904</v>
       </c>
       <c r="C127">
-        <v>95.586564211266605</v>
+        <v>94.738599340931202</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>1.28827495089277</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B128">
-        <v>1.00661275272546</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C128">
-        <v>94.9037657248182</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B129">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C129">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>1.2665269877259</v>
+        <v>1.3036403170847199</v>
       </c>
       <c r="B130">
-        <v>1.01398783895987</v>
+        <v>0.98618833135140005</v>
       </c>
       <c r="C130">
-        <v>95.586564211266605</v>
+        <v>94.761671315883703</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>1.2772551478540499</v>
+        <v>1.2602794206182599</v>
       </c>
       <c r="B131">
-        <v>0.98587692094269397</v>
+        <v>1.00191875289275</v>
       </c>
       <c r="C131">
-        <v>94.855848822092597</v>
+        <v>95.2013639551773</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B132">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C132">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>1.2642496067028199</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B133">
-        <v>0.99100559690253498</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C133">
-        <v>94.396234433748106</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>1.2665269877259</v>
+        <v>1.26292410662896</v>
       </c>
       <c r="B134">
-        <v>1.01398783895987</v>
+        <v>1.00737622016169</v>
       </c>
       <c r="C134">
-        <v>95.586564211266605</v>
+        <v>94.843600013965201</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>1.27726847207311</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B135">
-        <v>1.0211241786696701</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C135">
-        <v>95.223628760790504</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>1.27726847207311</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B136">
-        <v>1.0211241786696701</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C136">
-        <v>95.223628760790504</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>1.2769162885974601</v>
+        <v>1.2532554773083</v>
       </c>
       <c r="B137">
-        <v>1.0153435845772201</v>
+        <v>0.98646977161639804</v>
       </c>
       <c r="C137">
-        <v>95.325759157568001</v>
+        <v>94.780966799223705</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>1.2665269877259</v>
+        <v>1.2823250588403601</v>
       </c>
       <c r="B138">
-        <v>1.01398783895987</v>
+        <v>0.99075899614825702</v>
       </c>
       <c r="C138">
-        <v>95.586564211266605</v>
+        <v>94.381673512153597</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>1.2665269877259</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B139">
-        <v>1.01398783895987</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C139">
-        <v>95.586564211266605</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>1.27726847207311</v>
+        <v>1.2964443811314701</v>
       </c>
       <c r="B140">
-        <v>1.0211241786696701</v>
+        <v>1.0016405052275501</v>
       </c>
       <c r="C140">
-        <v>95.223628760790504</v>
+        <v>95.183352432232994</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>1.2665269877259</v>
+        <v>1.2888294890810601</v>
       </c>
       <c r="B141">
-        <v>1.01398783895987</v>
+        <v>0.99826819663695499</v>
       </c>
       <c r="C141">
-        <v>95.586564211266605</v>
+        <v>95.167645669576302</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>1.2665269877259</v>
+        <v>1.2541755240163699</v>
       </c>
       <c r="B142">
-        <v>1.01398783895987</v>
+        <v>1.0115998722532999</v>
       </c>
       <c r="C142">
-        <v>95.586564211266605</v>
+        <v>94.290480385456902</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>1.2665269877259</v>
+        <v>1.26316252594017</v>
       </c>
       <c r="B143">
-        <v>1.01398783895987</v>
+        <v>1.0075188024485799</v>
       </c>
       <c r="C143">
-        <v>95.586564211266605</v>
+        <v>94.862938735744095</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>1.26966022382843</v>
+        <v>1.29497368505996</v>
       </c>
       <c r="B144">
-        <v>1.00080810078843</v>
+        <v>0.98462660125843904</v>
       </c>
       <c r="C144">
-        <v>95.277863764985199</v>
+        <v>94.738599340931202</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>1.2665269877259</v>
+        <v>1.2910695441403801</v>
       </c>
       <c r="B145">
-        <v>1.01398783895987</v>
+        <v>0.99200696821489498</v>
       </c>
       <c r="C145">
-        <v>95.586564211266605</v>
+        <v>94.399215858080794</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>1.2769162885974601</v>
+        <v>1.26132020144975</v>
       </c>
       <c r="B146">
-        <v>1.0153435845772201</v>
+        <v>0.98494544749722202</v>
       </c>
       <c r="C146">
-        <v>95.325759157568001</v>
+        <v>94.760941753783797</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>1.2665269877259</v>
+        <v>1.2698132578451999</v>
       </c>
       <c r="B147">
-        <v>1.01398783895987</v>
+        <v>1.00085409296759</v>
       </c>
       <c r="C147">
-        <v>95.586564211266605</v>
+        <v>95.288263786047096</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>1.28827495089277</v>
+        <v>1.2642496067028199</v>
       </c>
       <c r="B148">
-        <v>1.00661275272546</v>
+        <v>0.99100559690253498</v>
       </c>
       <c r="C148">
-        <v>94.9037657248182</v>
+        <v>94.396234433748106</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>1.2886045540075</v>
+        <v>1.25595654892249</v>
       </c>
       <c r="B149">
-        <v>1.02111737156852</v>
+        <v>0.99221481398605604</v>
       </c>
       <c r="C149">
-        <v>95.267928797072997</v>
+        <v>94.4109579191216</v>
       </c>
     </row>
   </sheetData>
